--- a/data/exploratory_loadings_chatgpt_alternative.xlsx
+++ b/data/exploratory_loadings_chatgpt_alternative.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/076a438a88ad6cf7/trabalho/repositorios/mfv_llm/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\alunos-pg\joseluizn\mfv_llm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_43FDD3A98664280E62355476585DCE3A87472F01" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF5B61B5-5A79-8548-8618-BA64C5DE6DD6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAA112E-025B-4431-A50B-1C310CF9F7DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,10 +22,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -353,19 +353,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -702,13 +696,13 @@
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>102</v>
       </c>
@@ -772,7 +766,7 @@
         <v>0.2364155612262866</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>103</v>
       </c>
@@ -804,7 +798,7 @@
         <v>-7.6683609344289375E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>104</v>
       </c>
@@ -836,7 +830,7 @@
         <v>-0.29492155232571321</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>105</v>
       </c>
@@ -868,7 +862,7 @@
         <v>-0.1936191134889102</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>108</v>
       </c>
@@ -900,7 +894,7 @@
         <v>-0.1327258912303452</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>109</v>
       </c>
@@ -932,7 +926,7 @@
         <v>-0.10812517605580339</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>110</v>
       </c>
@@ -964,7 +958,7 @@
         <v>-2.6619519916854871E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>111</v>
       </c>
@@ -996,7 +990,7 @@
         <v>4.112647729040679E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>112</v>
       </c>
@@ -1028,7 +1022,7 @@
         <v>0.1015028932818243</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>113</v>
       </c>
@@ -1060,7 +1054,7 @@
         <v>0.1022269481811784</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>114</v>
       </c>
@@ -1092,7 +1086,7 @@
         <v>0.25978876594202988</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>201</v>
       </c>
@@ -1124,7 +1118,7 @@
         <v>-8.4154641291427815E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>202</v>
       </c>
@@ -1156,7 +1150,7 @@
         <v>-4.9476776062111781E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>203</v>
       </c>
@@ -1188,7 +1182,7 @@
         <v>0.29668467805669563</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>204</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>0.40461382663822942</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>205</v>
       </c>
@@ -1252,7 +1246,7 @@
         <v>0.32349509906558738</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>206</v>
       </c>
@@ -1284,7 +1278,7 @@
         <v>0.24882914240116721</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>207</v>
       </c>
@@ -1316,7 +1310,7 @@
         <v>0.49676477687540849</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>208</v>
       </c>
@@ -1348,7 +1342,7 @@
         <v>0.14311791193846779</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>303</v>
       </c>
@@ -1380,7 +1374,7 @@
         <v>7.9923929081576004E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>402</v>
       </c>
@@ -1412,7 +1406,7 @@
         <v>0.1143843118733581</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>403</v>
       </c>
@@ -1444,7 +1438,7 @@
         <v>0.26213940485595361</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>404</v>
       </c>
@@ -1476,7 +1470,7 @@
         <v>4.7249011818060467E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>405</v>
       </c>
@@ -1508,7 +1502,7 @@
         <v>0.60074546345322855</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>406</v>
       </c>
@@ -1540,7 +1534,7 @@
         <v>0.12394858251866769</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>408</v>
       </c>
@@ -1572,7 +1566,7 @@
         <v>-0.1878314211029882</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>409</v>
       </c>
@@ -1604,7 +1598,7 @@
         <v>0.33494964968531438</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>410</v>
       </c>
@@ -1636,7 +1630,7 @@
         <v>-2.5935009542470331E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>411</v>
       </c>
@@ -1668,7 +1662,7 @@
         <v>0.15044134253424321</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>501</v>
       </c>
@@ -1700,7 +1694,7 @@
         <v>-0.1679849349917244</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>502</v>
       </c>
@@ -1732,7 +1726,7 @@
         <v>-3.5081145402388922E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>503</v>
       </c>
@@ -1764,7 +1758,7 @@
         <v>-0.1138490700032318</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>504</v>
       </c>
@@ -1796,7 +1790,7 @@
         <v>0.15056122247258041</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>507</v>
       </c>
@@ -1828,7 +1822,7 @@
         <v>0.13874806207354051</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>509</v>
       </c>
@@ -1860,7 +1854,7 @@
         <v>1.531859645189163E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>510</v>
       </c>
@@ -1892,7 +1886,7 @@
         <v>9.4950410172040839E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>601</v>
       </c>
@@ -1924,7 +1918,7 @@
         <v>-0.20864335561489691</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>602</v>
       </c>
@@ -1956,7 +1950,7 @@
         <v>1.1323219475986711E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>603</v>
       </c>
@@ -1988,7 +1982,7 @@
         <v>0.14512489283533539</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>604</v>
       </c>
@@ -2020,7 +2014,7 @@
         <v>-1.181352807306971E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>605</v>
       </c>
@@ -2052,7 +2046,7 @@
         <v>-0.28321949308088312</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>608</v>
       </c>
@@ -2084,7 +2078,7 @@
         <v>-8.5749431975607761E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>610</v>
       </c>
@@ -2116,7 +2110,7 @@
         <v>-0.1088805785636993</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>611</v>
       </c>
@@ -2148,7 +2142,7 @@
         <v>3.4718150777816821E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>612</v>
       </c>
@@ -2180,7 +2174,7 @@
         <v>-0.30233889658580532</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>614</v>
       </c>
@@ -2212,7 +2206,7 @@
         <v>-0.1045942325968139</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>701</v>
       </c>
@@ -2244,7 +2238,7 @@
         <v>-5.1192308330860831E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>702</v>
       </c>
@@ -2276,7 +2270,7 @@
         <v>-0.16072902736638289</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>703</v>
       </c>
@@ -2308,7 +2302,7 @@
         <v>0.2445505363692968</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>704</v>
       </c>
@@ -2340,7 +2334,7 @@
         <v>4.2944137128853779E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>705</v>
       </c>
@@ -2372,7 +2366,7 @@
         <v>0.22065255476070339</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>706</v>
       </c>
@@ -2404,7 +2398,7 @@
         <v>3.241244949674172E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>707</v>
       </c>
@@ -2436,7 +2430,7 @@
         <v>0.1291980044988062</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>709</v>
       </c>
@@ -2468,7 +2462,7 @@
         <v>2.1356568953923481E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>710</v>
       </c>
@@ -2500,7 +2494,7 @@
         <v>0.25859609137805989</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>711</v>
       </c>
@@ -2532,7 +2526,7 @@
         <v>-4.0579514939913242E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>712</v>
       </c>
@@ -2564,7 +2558,7 @@
         <v>-0.1069551059610182</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>713</v>
       </c>
@@ -2596,7 +2590,7 @@
         <v>-2.034242920612319E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>714</v>
       </c>
@@ -2628,7 +2622,7 @@
         <v>-2.3889644187952232E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>715</v>
       </c>
@@ -2660,7 +2654,7 @@
         <v>-1.709780735365474E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>716</v>
       </c>
@@ -2692,7 +2686,7 @@
         <v>0.22923931587621721</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>801</v>
       </c>
@@ -2724,7 +2718,7 @@
         <v>-2.873678980945426E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>802</v>
       </c>
@@ -2756,7 +2750,7 @@
         <v>6.3376952601137043E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>803</v>
       </c>
@@ -2788,7 +2782,7 @@
         <v>-0.1156127248913961</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>804</v>
       </c>
@@ -2820,7 +2814,7 @@
         <v>-9.2944570012626945E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>805</v>
       </c>
@@ -2852,7 +2846,7 @@
         <v>6.8738758472543335E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>808</v>
       </c>
@@ -2884,7 +2878,7 @@
         <v>8.4538387850749838E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>810</v>
       </c>
@@ -2918,15 +2912,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:J69">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K13">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0.3</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0.3</formula>
     </cfRule>
   </conditionalFormatting>
